--- a/MEDIA/100000_1102_201_會計科目餘額明細.xlsx
+++ b/MEDIA/100000_1102_201_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(100000_1102_201_2020-10-21~2020-10-21)</t>
+          <t>森邦(股)會計科目餘額明細(100000_1102_201_2020-11-20~2020-11-20)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>5409025</v>
+        <v>27823697</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201021</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,24 +442,106 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>暫收-余灼蓮-桃園大同西 暫收款+保證金          </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1316699</v>
+        <v>90000</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6725724</v>
+        <v>27913697</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110378</t>
+          <t>111744</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1102  .201     </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>存現                            </t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>11807</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27925504</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>111744</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1102  .201     </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>存現                            </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1021854</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>28947358</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>111744</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
